--- a/SPINDLE/info_about_data/kornum_data_cleaning.xlsx
+++ b/SPINDLE/info_about_data/kornum_data_cleaning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\info_about_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EDB53-B535-4730-A9E3-D3B8FFC72591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB503C5D-81FD-402C-AEEC-2578C25CD8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="After cleaning" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
   <si>
     <t>File</t>
   </si>
@@ -298,13 +298,31 @@
   </si>
   <si>
     <t>New files added to test set (4 more, 11 in total)</t>
+  </si>
+  <si>
+    <t>Files in blue are the validation set in SleepTransformer</t>
+  </si>
+  <si>
+    <t>Whole dataset</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Train and validation (SPINDLE)</t>
+  </si>
+  <si>
+    <t>Train (ST)</t>
+  </si>
+  <si>
+    <t>Validation (ST)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +414,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -476,16 +510,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,38 +863,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31427E-6CDF-4FB1-B331-D65A1136D6A6}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="R5" sqref="R5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="20" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>69</v>
       </c>
@@ -881,7 +925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,8 +962,20 @@
       <c r="M5" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -960,8 +1016,27 @@
         <f>SUM(H6:L6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F6:F15,F17:F18,F20:F23,F25:F26,F28:F32,F34:F39,F41:F43,F45:F47,F49:F51,F53:F54,F57:F60)/SUM(D6:D15,D17:D18,D20:D23,D25:D26,D28:D32,D34:D39,D41:D43,D45:D47,D49:D51,D53:D54,D57:D60)</f>
+        <v>0.54207121816495007</v>
+      </c>
+      <c r="S6">
+        <f>SUM(E6:E15,E17:E18,E20:E23,E25:E26,E28:E32,E34:E39,E41:E43,E45:E47,E49:E51,E53:E54,E57:E60)/SUM(D6:D15,D17:D18,D20:D23,D25:D26,D28:D32,D34:D39,D41:D43,D45:D47,D49:D51,D53:D54,D57:D60)</f>
+        <v>0.39089472326611119</v>
+      </c>
+      <c r="T6">
+        <f>SUM(G6:G15,G17:G18,G20:G23,G25:G26,G28:G32,G34:G39,G41:G43,G45:G47,G49:G51,G53:G54,G57:G60)/SUM(D6:D15,D17:D18,D20:D23,D25:D26,D28:D32,D34:D39,D41:D43,D45:D47,D49:D51,D53:D54,D57:D60)</f>
+        <v>6.2721692795954978E-2</v>
+      </c>
+      <c r="U6">
+        <f>SUM(M6:M15,M17:M18,M20:M23,M25:M26,M28:M32,M34:M39,M41:M43,M45:M47,M49:M51,M53:M54,M57:M60)/SUM(D6:D15,D17:D18,D20:D23,D25:D26,D28:D32,D34:D39,D41:D43,D45:D47,D49:D51,D53:D54,D57:D60)</f>
+        <v>4.3123657729837268E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1002,8 +1077,27 @@
         <f t="shared" ref="M7:M60" si="0">SUM(H7:L7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7">
+        <f>SUM(F6:F14,F17:F18,F20:F22,F25:F26,F28:F29,F31:F32,F34:F39,F41,F43,F45:F47,F49:F50,F53:F54,F57:F60)/SUM(D6:D14,D17:D18,D20:D22,D25:D26,D28:D29,D31:D32,D34:D39,D41,D43,D45:D47,D49:D50,D53:D54,D57:D60)</f>
+        <v>0.54247970933044054</v>
+      </c>
+      <c r="S7">
+        <f>SUM(E6:E14,E17:E18,E20:E22,E25:E26,E28:E29,E31:E32,E34:E39,E41,E43,E45:E47,E49:E50,E53:E54,E57:E60)/SUM(D6:D14,D17:D18,D20:D22,D25:D26,D28:D29,D31:D32,D34:D39,D41,D43,D45:D47,D49:D50,D53:D54,D57:D60)</f>
+        <v>0.39076366107720256</v>
+      </c>
+      <c r="T7">
+        <f>SUM(G6:G14,G17:G18,G20:G22,G25:G26,G28:G29,G31:G32,G34:G39,G41,G43,G45:G47,G49:G50,G53:G54,G57:G60)/SUM(D6:D14,D17:D18,D20:D22,D25:D26,D28:D29,D31:D32,D34:D39,D41,D43,D45:D47,D49:D50,D53:D54,D57:D60)</f>
+        <v>6.3177172506632864E-2</v>
+      </c>
+      <c r="U7">
+        <f>SUM(M6:M14,M17:M18,M20:M22,M25:M26,M28:M29,M31:M32,M34:M39,M41,M43,M45:M47,M49:M50,M53:M54,M57:M60)/SUM(D6:D14,D17:D18,D20:D22,D25:D26,D28:D29,D31:D32,D34:D39,D41,D43,D45:D47,D49:D50,D53:D54,D57:D60)</f>
+        <v>3.5794570857239946E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1044,8 +1138,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8">
+        <f>SUM(F15,F23,F30,F42,F51)/SUM(D15,D23,D30,D42,D51)</f>
+        <v>0.53928057232781612</v>
+      </c>
+      <c r="S8">
+        <f>SUM(E15,E23,E30,E42,E51)/SUM(D15,D23,D30,D42,D51)</f>
+        <v>0.39179008694293466</v>
+      </c>
+      <c r="T8">
+        <f>SUM(G15,G23,G30,G42,G51)/SUM(D15,D23,D30,D42,D51)</f>
+        <v>5.9610040290628247E-2</v>
+      </c>
+      <c r="U8">
+        <f>SUM(M15,M23,M30,M42,M51)/SUM(D15,D23,D30,D42,D51)</f>
+        <v>9.3193004386209668E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1086,8 +1199,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9">
+        <f>SUM(F16,F19,F24,F27,F33,F40,F44,F48,F52,F55,F56)/SUM(D16,D19,D24,D27,D33,D40,D44,D48,D52,D56,D55)</f>
+        <v>0.56429051925725815</v>
+      </c>
+      <c r="S9">
+        <f>SUM(E16,E19,E24,E27,E33,E40,E44,E48,E52,E55,E56)/SUM(D16,D19,D24,D27,D33,D40,D44,D48,D52,D56,D55)</f>
+        <v>0.37074092661206798</v>
+      </c>
+      <c r="T9">
+        <f>SUM(G16,G19,G24,G27,G33,G40,G44,G48,G52,G55,G56)/SUM(D16,D19,D24,D27,D33,D40,D44,D48,D52,D56,D55)</f>
+        <v>6.1877355770770824E-2</v>
+      </c>
+      <c r="U9">
+        <f>SUM(M16,M19,M24,M27,M33,M40,M44,M48,M52,M55,M56)/SUM(D16,D19,D24,D27,D33,D40,D44,D48,D52,D56,D55)</f>
+        <v>3.0911983599030465E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1128,8 +1260,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <f>SUM(F6:F60)/SUM(D6:D60)</f>
+        <v>0.54675262005221548</v>
+      </c>
+      <c r="S10">
+        <f>SUM(E6:E60)/SUM(D6:D60)</f>
+        <v>0.38664850412088064</v>
+      </c>
+      <c r="T10">
+        <f>SUM(G6:G60)/SUM(D6:D60)</f>
+        <v>6.2543798769191319E-2</v>
+      </c>
+      <c r="U10">
+        <f>SUM(M6:M60)/SUM(D6:D60)</f>
+        <v>4.0550770577125767E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1171,7 +1322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1213,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1255,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1297,49 +1448,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
-        <v>400</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="21">
+        <v>400</v>
+      </c>
+      <c r="D15" s="21">
         <v>3602</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="21">
         <v>1589</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="21">
         <v>1737</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="21">
         <v>251</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="21">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
         <v>8</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="21">
         <v>16</v>
       </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -1633,50 +1784,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6">
-        <v>400</v>
-      </c>
-      <c r="D23" s="6">
-        <v>21600</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C23" s="21">
+        <v>400</v>
+      </c>
+      <c r="D23" s="21">
+        <v>21600</v>
+      </c>
+      <c r="E23" s="21">
         <v>8446</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="21">
         <v>11631</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="21">
         <v>1523</v>
       </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="18">
         <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1927,44 +2078,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="30" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6">
-        <v>400</v>
-      </c>
-      <c r="D30" s="6">
-        <v>21600</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="C30" s="21">
+        <v>400</v>
+      </c>
+      <c r="D30" s="21">
+        <v>21600</v>
+      </c>
+      <c r="E30" s="21">
         <v>9336</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="21">
         <v>10982</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="21">
         <v>1278</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
         <v>4</v>
       </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2054,7 +2205,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>27</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -2431,44 +2582,44 @@
         <v>559</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
         <v>36</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="6">
-        <v>400</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="21">
+        <v>400</v>
+      </c>
+      <c r="D42" s="21">
         <v>21196</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="21">
         <v>8091</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="21">
         <v>11441</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="21">
         <v>892</v>
       </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="H42" s="21">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21">
         <v>772</v>
       </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="J42" s="21">
+        <v>0</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0</v>
+      </c>
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
         <f t="shared" si="0"/>
         <v>772</v>
       </c>
@@ -2809,50 +2960,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
         <v>45</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="6">
-        <v>400</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" s="21">
+        <v>400</v>
+      </c>
+      <c r="D51" s="21">
         <v>21601</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="21">
         <v>7642</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="21">
         <v>12528</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="21">
         <v>1397</v>
       </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
+      <c r="H51" s="21">
+        <v>0</v>
+      </c>
+      <c r="I51" s="21">
+        <v>0</v>
+      </c>
+      <c r="J51" s="21">
         <v>1</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="21">
         <v>2</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="21">
         <v>31</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="18">
         <v>46</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -3020,7 +3171,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
+      <c r="A56" s="18">
         <v>50</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3230,23 +3381,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D61">
-        <f>SUM(D6:D60)</f>
-        <v>889009</v>
-      </c>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <f>SUM(D55,D48,D44,D40,D27,D19,D16)</f>
-        <v>100906</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D63">
-        <f>D61-D62</f>
-        <v>788103</v>
-      </c>
+      <c r="M61" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3287,13 +3422,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -3321,12 +3456,12 @@
       <c r="L4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="2" t="s">
         <v>86</v>
       </c>

--- a/SPINDLE/info_about_data/kornum_data_cleaning.xlsx
+++ b/SPINDLE/info_about_data/kornum_data_cleaning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\info_about_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB503C5D-81FD-402C-AEEC-2578C25CD8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEF047-6874-4913-AE43-D863D832E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="9795" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="After cleaning" sheetId="2" r:id="rId1"/>
@@ -863,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D31427E-6CDF-4FB1-B331-D65A1136D6A6}">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:U5"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,19 +875,20 @@
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="20" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>69</v>
       </c>
@@ -925,7 +926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,8 +975,10 @@
       <c r="U5" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>4.3123657729837268E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>3.5794570857239946E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>9.3193004386209668E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>3.0911983599030465E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>4.0550770577125767E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>9</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>10</v>
       </c>
